--- a/tp3-pid/pidPositionAvecUltrason.xlsx
+++ b/tp3-pid/pidPositionAvecUltrason.xlsx
@@ -12,6 +12,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="sIHEE+/naCqZNGnWPdPyHgDrqWReUe60+aSwMnH3z4E="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,12 +113,10 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,11 +138,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -158,7 +159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -166,13 +167,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>PID =&gt; p</a:t>
+              <a:t>TODO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -200,6 +201,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>pdata!$B$2:$B$1000</c:f>
@@ -212,9 +218,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pdata!$C$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -226,9 +230,14 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pdata!$C$2:$C$1000</c:f>
+              <c:f>pdata!$C$3:$C$1000</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -238,9 +247,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pdata!$D$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -252,9 +259,14 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pdata!$D$2:$D$1000</c:f>
+              <c:f>pdata!$D$3:$D$1000</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -264,9 +276,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pdata!$E$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -278,9 +288,14 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pdata!$E$2:$E$1000</c:f>
+              <c:f>pdata!$E$3:$E$1000</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -290,9 +305,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pdata!$F$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -304,9 +317,14 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pdata!$F$2:$F$1000</c:f>
+              <c:f>pdata!$F$3:$F$1000</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -316,9 +334,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pdata!$G$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -330,19 +346,24 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pdata!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pdata!$G$2:$G$1000</c:f>
+              <c:f>pdata!$G$3:$G$1000</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2056984524"/>
-        <c:axId val="1805194578"/>
+        <c:axId val="926944118"/>
+        <c:axId val="1234017981"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2056984524"/>
+        <c:axId val="926944118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +376,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -363,13 +384,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -385,7 +406,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -394,10 +415,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1805194578"/>
+        <c:crossAx val="1234017981"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1805194578"/>
+        <c:axId val="1234017981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,17 +433,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -430,7 +440,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -438,13 +448,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -463,7 +473,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -472,9 +482,35 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056984524"/>
+        <c:crossAx val="926944118"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.9075170068027211"/>
+          <c:y val="0.10907859078590786"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
@@ -490,7 +526,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -498,13 +534,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>PID =&gt; i</a:t>
+              <a:t>TODO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -549,9 +585,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$C$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -570,7 +604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$C$2:$C$82</c:f>
+              <c:f>idata!$C$3:$C$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -580,9 +614,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$D$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -601,7 +633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$D$2:$D$82</c:f>
+              <c:f>idata!$D$3:$D$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -611,9 +643,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$E$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -632,7 +662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$E$2:$E$82</c:f>
+              <c:f>idata!$E$3:$E$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -642,9 +672,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$F$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -663,7 +691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$F$2:$F$82</c:f>
+              <c:f>idata!$F$3:$F$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -673,9 +701,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$G$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -694,7 +720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$G$2:$G$82</c:f>
+              <c:f>idata!$G$3:$G$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -704,9 +730,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:strRef>
-              <c:f>idata!$H$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -725,17 +749,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>idata!$H$2:$H$82</c:f>
+              <c:f>idata!$H$3:$H$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1882109449"/>
-        <c:axId val="1962947657"/>
+        <c:axId val="55242851"/>
+        <c:axId val="1817106475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1882109449"/>
+        <c:axId val="55242851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +772,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -756,13 +780,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t>time</a:t>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -778,7 +802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -787,10 +811,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962947657"/>
+        <c:crossAx val="1817106475"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1962947657"/>
+        <c:axId val="1817106475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +847,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -831,13 +855,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -856,7 +880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -865,9 +889,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1882109449"/>
+        <c:crossAx val="55242851"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
@@ -883,7 +925,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -891,13 +933,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>PID =&gt; d</a:t>
+              <a:t>TODO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -911,9 +953,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$M$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -927,12 +967,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$M$2:$M$82</c:f>
+              <c:f>ddata!$M$3:$M$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -942,9 +982,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$L$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -958,12 +996,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$L$2:$L$82</c:f>
+              <c:f>ddata!$L$3:$L$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -973,9 +1011,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$I$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -989,12 +1025,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$I$2:$I$82</c:f>
+              <c:f>ddata!$I$3:$I$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1004,9 +1040,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$H$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -1020,12 +1054,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$H$2:$H$82</c:f>
+              <c:f>ddata!$H$3:$H$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1035,9 +1069,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$E$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -1051,12 +1083,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$E$2:$E$82</c:f>
+              <c:f>ddata!$E$3:$E$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1066,9 +1098,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ddata!$D$1</c:f>
-            </c:strRef>
+            <c:v>TODO</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -1082,22 +1112,53 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ddata!$A$2:$A$82</c:f>
+              <c:f>ddata!$A$3:$A$82</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ddata!$D$2:$D$82</c:f>
+              <c:f>ddata!$D$3:$D$82</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="760390706"/>
-        <c:axId val="948581698"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ddata!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="7BAAF7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ddata!$A$3:$A$82</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ddata!$B$2:$B$82</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1669801163"/>
+        <c:axId val="1512861401"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="760390706"/>
+        <c:axId val="1669801163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1171,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1118,13 +1179,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t>time</a:t>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1140,7 +1201,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1149,10 +1210,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948581698"/>
+        <c:crossAx val="1512861401"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948581698"/>
+        <c:axId val="1512861401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1246,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1193,13 +1254,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>TODO</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1218,7 +1279,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1227,9 +1288,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760390706"/>
+        <c:crossAx val="1669801163"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
@@ -1273,7 +1352,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Graphique"/>
+        <xdr:cNvPr id="1847084130" name="Chart 1" title="Graphique"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1302,7 +1381,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Graphique"/>
+        <xdr:cNvPr id="302872261" name="Chart 2" title="Graphique"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1331,7 +1410,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Graphique"/>
+        <xdr:cNvPr id="1001017482" name="Chart 3" title="Graphique"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1551,9 +1630,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
@@ -1599,7 +1681,7 @@
         <v>302.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -1622,7 +1704,7 @@
         <v>297.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -1645,7 +1727,7 @@
         <v>282.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>0.301</v>
       </c>
@@ -1668,7 +1750,7 @@
         <v>260.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>0.401</v>
       </c>
@@ -1691,7 +1773,7 @@
         <v>238.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>0.501</v>
       </c>
@@ -1714,7 +1796,7 @@
         <v>218.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>0.601</v>
       </c>
@@ -1737,7 +1819,7 @@
         <v>195.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>0.701</v>
       </c>
@@ -1760,7 +1842,7 @@
         <v>175.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>0.802</v>
       </c>
@@ -1783,7 +1865,7 @@
         <v>156.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>0.902</v>
       </c>
@@ -1806,7 +1888,7 @@
         <v>141.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>1.002</v>
       </c>
@@ -1829,7 +1911,7 @@
         <v>110.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>1.102</v>
       </c>
@@ -1852,7 +1934,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>1.203</v>
       </c>
@@ -1875,7 +1957,7 @@
         <v>78.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>1.303</v>
       </c>
@@ -1898,7 +1980,7 @@
         <v>71.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>1.403</v>
       </c>
@@ -1921,7 +2003,7 @@
         <v>75.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>1.503</v>
       </c>
@@ -1944,7 +2026,7 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>1.604</v>
       </c>
@@ -1967,7 +2049,7 @@
         <v>104.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>1.704</v>
       </c>
@@ -1990,7 +2072,7 @@
         <v>115.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>1.804</v>
       </c>
@@ -2013,7 +2095,7 @@
         <v>120.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>1.905</v>
       </c>
@@ -2036,7 +2118,7 @@
         <v>116.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>2.005</v>
       </c>
@@ -2059,7 +2141,7 @@
         <v>102.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>2.105</v>
       </c>
@@ -2082,7 +2164,7 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>2.205</v>
       </c>
@@ -2105,7 +2187,7 @@
         <v>78.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>2.306</v>
       </c>
@@ -2128,7 +2210,7 @@
         <v>76.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>2.406</v>
       </c>
@@ -2151,7 +2233,7 @@
         <v>85.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>2.506</v>
       </c>
@@ -2174,7 +2256,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>2.607</v>
       </c>
@@ -2197,7 +2279,7 @@
         <v>114.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>2.707</v>
       </c>
@@ -2220,7 +2302,7 @@
         <v>122.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>2.807</v>
       </c>
@@ -2243,7 +2325,7 @@
         <v>121.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>2.908</v>
       </c>
@@ -2266,7 +2348,7 @@
         <v>108.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>3.008</v>
       </c>
@@ -2289,7 +2371,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>3.108</v>
       </c>
@@ -2312,7 +2394,7 @@
         <v>84.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>3.208</v>
       </c>
@@ -2335,7 +2417,7 @@
         <v>80.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>3.309</v>
       </c>
@@ -2358,7 +2440,7 @@
         <v>86.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>3.409</v>
       </c>
@@ -2381,7 +2463,7 @@
         <v>99.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>3.509</v>
       </c>
@@ -2404,7 +2486,7 @@
         <v>111.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>3.61</v>
       </c>
@@ -2427,7 +2509,7 @@
         <v>117.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>3.71</v>
       </c>
@@ -2450,7 +2532,7 @@
         <v>116.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>3.81</v>
       </c>
@@ -2473,7 +2555,7 @@
         <v>107.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>3.91</v>
       </c>
@@ -2496,7 +2578,7 @@
         <v>96.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>4.011</v>
       </c>
@@ -2519,7 +2601,7 @@
         <v>91.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>4.111</v>
       </c>
@@ -2542,7 +2624,7 @@
         <v>89.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>4.211</v>
       </c>
@@ -2565,7 +2647,7 @@
         <v>94.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>4.312</v>
       </c>
@@ -2588,7 +2670,7 @@
         <v>111.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>4.412</v>
       </c>
@@ -2611,7 +2693,7 @@
         <v>131.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>4.512</v>
       </c>
@@ -2634,7 +2716,7 @@
         <v>154.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>4.613</v>
       </c>
@@ -2657,7 +2739,7 @@
         <v>173.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>4.713</v>
       </c>
@@ -2680,7 +2762,7 @@
         <v>196.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>4.813</v>
       </c>
@@ -2703,7 +2785,7 @@
         <v>215.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>4.913</v>
       </c>
@@ -2726,7 +2808,7 @@
         <v>231.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>5.014</v>
       </c>
@@ -2749,7 +2831,7 @@
         <v>237.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>5.114</v>
       </c>
@@ -2772,7 +2854,7 @@
         <v>233.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>5.214</v>
       </c>
@@ -2795,7 +2877,7 @@
         <v>218.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>5.315</v>
       </c>
@@ -2818,7 +2900,7 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>5.415</v>
       </c>
@@ -2841,7 +2923,7 @@
         <v>182.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>5.515</v>
       </c>
@@ -2864,7 +2946,7 @@
         <v>172.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>5.616</v>
       </c>
@@ -2887,7 +2969,7 @@
         <v>172.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>5.716</v>
       </c>
@@ -2910,7 +2992,7 @@
         <v>181.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>5.816</v>
       </c>
@@ -2933,7 +3015,7 @@
         <v>202.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>5.916</v>
       </c>
@@ -2956,7 +3038,7 @@
         <v>217.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>6.017</v>
       </c>
@@ -2979,7 +3061,7 @@
         <v>228.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>6.117</v>
       </c>
@@ -3002,7 +3084,7 @@
         <v>229.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>6.217</v>
       </c>
@@ -3025,7 +3107,7 @@
         <v>218.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>6.318</v>
       </c>
@@ -3048,7 +3130,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>6.418</v>
       </c>
@@ -3071,7 +3153,7 @@
         <v>184.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>6.518</v>
       </c>
@@ -3094,7 +3176,7 @@
         <v>175.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>6.619</v>
       </c>
@@ -3117,7 +3199,7 @@
         <v>175.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>6.719</v>
       </c>
@@ -3140,7 +3222,7 @@
         <v>185.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>6.819</v>
       </c>
@@ -3163,7 +3245,7 @@
         <v>202.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>6.92</v>
       </c>
@@ -3186,7 +3268,7 @@
         <v>215.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>7.02</v>
       </c>
@@ -3209,7 +3291,7 @@
         <v>224.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>7.12</v>
       </c>
@@ -3232,7 +3314,7 @@
         <v>223.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>7.221</v>
       </c>
@@ -3255,7 +3337,7 @@
         <v>212.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>7.321</v>
       </c>
@@ -3278,7 +3360,7 @@
         <v>197.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>7.421</v>
       </c>
@@ -3301,7 +3383,7 @@
         <v>187.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>7.522</v>
       </c>
@@ -3324,7 +3406,7 @@
         <v>181.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>7.622</v>
       </c>
@@ -3347,7 +3429,7 @@
         <v>184.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>7.722</v>
       </c>
@@ -3370,7 +3452,7 @@
         <v>197.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>7.822</v>
       </c>
@@ -3393,7 +3475,7 @@
         <v>210.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>7.923</v>
       </c>
@@ -3416,7 +3498,7 @@
         <v>220.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>8.023</v>
       </c>
@@ -3439,6 +3521,924 @@
         <v>221.0</v>
       </c>
     </row>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3452,9 +4452,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +4485,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
@@ -3508,7 +4511,7 @@
         <v>302.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -3534,7 +4537,7 @@
         <v>295.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -3560,7 +4563,7 @@
         <v>277.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>0.301</v>
       </c>
@@ -3586,7 +4589,7 @@
         <v>266.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>0.401</v>
       </c>
@@ -3612,7 +4615,7 @@
         <v>237.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>0.501</v>
       </c>
@@ -3638,7 +4641,7 @@
         <v>215.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>0.601</v>
       </c>
@@ -3664,7 +4667,7 @@
         <v>192.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>0.701</v>
       </c>
@@ -3690,7 +4693,7 @@
         <v>172.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>0.802</v>
       </c>
@@ -3716,7 +4719,7 @@
         <v>153.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>0.902</v>
       </c>
@@ -3742,7 +4745,7 @@
         <v>130.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>1.002</v>
       </c>
@@ -3768,7 +4771,7 @@
         <v>107.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>1.103</v>
       </c>
@@ -3794,7 +4797,7 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>1.203</v>
       </c>
@@ -3820,7 +4823,7 @@
         <v>70.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>1.303</v>
       </c>
@@ -3846,7 +4849,7 @@
         <v>56.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>1.404</v>
       </c>
@@ -3872,7 +4875,7 @@
         <v>44.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>1.504</v>
       </c>
@@ -3898,7 +4901,7 @@
         <v>37.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>1.604</v>
       </c>
@@ -3924,7 +4927,7 @@
         <v>34.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>1.705</v>
       </c>
@@ -3950,7 +4953,7 @@
         <v>37.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>1.805</v>
       </c>
@@ -3976,7 +4979,7 @@
         <v>46.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>1.905</v>
       </c>
@@ -4002,7 +5005,7 @@
         <v>55.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>2.005</v>
       </c>
@@ -4028,7 +5031,7 @@
         <v>62.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>2.106</v>
       </c>
@@ -4054,7 +5057,7 @@
         <v>66.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>2.206</v>
       </c>
@@ -4080,7 +5083,7 @@
         <v>69.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>2.306</v>
       </c>
@@ -4106,7 +5109,7 @@
         <v>71.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>2.407</v>
       </c>
@@ -4132,7 +5135,7 @@
         <v>73.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>2.507</v>
       </c>
@@ -4158,7 +5161,7 @@
         <v>74.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>2.607</v>
       </c>
@@ -4184,7 +5187,7 @@
         <v>76.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>2.707</v>
       </c>
@@ -4210,7 +5213,7 @@
         <v>78.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>2.808</v>
       </c>
@@ -4236,7 +5239,7 @@
         <v>78.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>2.908</v>
       </c>
@@ -4262,7 +5265,7 @@
         <v>80.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>3.008</v>
       </c>
@@ -4288,7 +5291,7 @@
         <v>81.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>3.109</v>
       </c>
@@ -4314,7 +5317,7 @@
         <v>82.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>3.209</v>
       </c>
@@ -4340,7 +5343,7 @@
         <v>83.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>3.309</v>
       </c>
@@ -4366,7 +5369,7 @@
         <v>83.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>3.41</v>
       </c>
@@ -4392,7 +5395,7 @@
         <v>85.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>3.51</v>
       </c>
@@ -4418,7 +5421,7 @@
         <v>86.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>3.61</v>
       </c>
@@ -4444,7 +5447,7 @@
         <v>86.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>3.71</v>
       </c>
@@ -4470,7 +5473,7 @@
         <v>87.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>3.811</v>
       </c>
@@ -4496,7 +5499,7 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>3.911</v>
       </c>
@@ -4522,7 +5525,7 @@
         <v>89.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>4.011</v>
       </c>
@@ -4548,7 +5551,7 @@
         <v>89.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>4.112</v>
       </c>
@@ -4574,7 +5577,7 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>4.212</v>
       </c>
@@ -4600,7 +5603,7 @@
         <v>96.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>4.312</v>
       </c>
@@ -4626,7 +5629,7 @@
         <v>113.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>4.412</v>
       </c>
@@ -4652,7 +5655,7 @@
         <v>136.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>4.513</v>
       </c>
@@ -4678,7 +5681,7 @@
         <v>155.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>4.613</v>
       </c>
@@ -4704,7 +5707,7 @@
         <v>178.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>4.713</v>
       </c>
@@ -4730,7 +5733,7 @@
         <v>195.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>4.814</v>
       </c>
@@ -4756,7 +5759,7 @@
         <v>210.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>4.914</v>
       </c>
@@ -4782,7 +5785,7 @@
         <v>219.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>5.014</v>
       </c>
@@ -4808,7 +5811,7 @@
         <v>226.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>5.114</v>
       </c>
@@ -4834,7 +5837,7 @@
         <v>228.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>5.215</v>
       </c>
@@ -4860,7 +5863,7 @@
         <v>227.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>5.315</v>
       </c>
@@ -4886,7 +5889,7 @@
         <v>222.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>5.415</v>
       </c>
@@ -4912,7 +5915,7 @@
         <v>215.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>5.516</v>
       </c>
@@ -4938,7 +5941,7 @@
         <v>211.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>5.616</v>
       </c>
@@ -4964,7 +5967,7 @@
         <v>208.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>5.716</v>
       </c>
@@ -4990,7 +5993,7 @@
         <v>207.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>5.816</v>
       </c>
@@ -5016,7 +6019,7 @@
         <v>206.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>5.917</v>
       </c>
@@ -5042,7 +6045,7 @@
         <v>206.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>6.017</v>
       </c>
@@ -5068,7 +6071,7 @@
         <v>205.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>6.117</v>
       </c>
@@ -5094,7 +6097,7 @@
         <v>205.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>6.218</v>
       </c>
@@ -5120,7 +6123,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>6.318</v>
       </c>
@@ -5146,7 +6149,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>6.418</v>
       </c>
@@ -5172,7 +6175,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>6.518</v>
       </c>
@@ -5198,7 +6201,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>6.619</v>
       </c>
@@ -5224,7 +6227,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>6.719</v>
       </c>
@@ -5250,7 +6253,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>6.819</v>
       </c>
@@ -5276,7 +6279,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>6.92</v>
       </c>
@@ -5302,7 +6305,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>7.02</v>
       </c>
@@ -5328,7 +6331,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>7.12</v>
       </c>
@@ -5354,7 +6357,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>7.22</v>
       </c>
@@ -5380,7 +6383,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>7.321</v>
       </c>
@@ -5406,7 +6409,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>7.421</v>
       </c>
@@ -5432,7 +6435,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>7.521</v>
       </c>
@@ -5458,7 +6461,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>7.622</v>
       </c>
@@ -5484,7 +6487,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>7.722</v>
       </c>
@@ -5510,7 +6513,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>7.822</v>
       </c>
@@ -5536,7 +6539,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>7.923</v>
       </c>
@@ -5562,7 +6565,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>8.023</v>
       </c>
@@ -5588,6 +6591,924 @@
         <v>204.0</v>
       </c>
     </row>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5601,9 +7522,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +7571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
@@ -5691,7 +7615,7 @@
         <v>302.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -5735,7 +7659,7 @@
         <v>295.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -5779,7 +7703,7 @@
         <v>285.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>0.301</v>
       </c>
@@ -5823,7 +7747,7 @@
         <v>257.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>0.401</v>
       </c>
@@ -5867,7 +7791,7 @@
         <v>237.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>0.501</v>
       </c>
@@ -5911,7 +7835,7 @@
         <v>215.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>0.601</v>
       </c>
@@ -5955,7 +7879,7 @@
         <v>195.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>0.701</v>
       </c>
@@ -5999,7 +7923,7 @@
         <v>173.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>0.801</v>
       </c>
@@ -6043,7 +7967,7 @@
         <v>153.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>0.902</v>
       </c>
@@ -6087,7 +8011,7 @@
         <v>131.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>1.002</v>
       </c>
@@ -6131,7 +8055,7 @@
         <v>121.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>1.102</v>
       </c>
@@ -6175,7 +8099,7 @@
         <v>99.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>1.203</v>
       </c>
@@ -6219,7 +8143,7 @@
         <v>89.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>1.303</v>
       </c>
@@ -6263,7 +8187,7 @@
         <v>83.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>1.403</v>
       </c>
@@ -6307,7 +8231,7 @@
         <v>80.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>1.504</v>
       </c>
@@ -6351,7 +8275,7 @@
         <v>81.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>1.604</v>
       </c>
@@ -6395,7 +8319,7 @@
         <v>84.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>1.704</v>
       </c>
@@ -6439,7 +8363,7 @@
         <v>88.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>1.804</v>
       </c>
@@ -6483,7 +8407,7 @@
         <v>91.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>1.905</v>
       </c>
@@ -6527,7 +8451,7 @@
         <v>92.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>2.005</v>
       </c>
@@ -6571,7 +8495,7 @@
         <v>93.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>2.105</v>
       </c>
@@ -6615,7 +8539,7 @@
         <v>94.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>2.206</v>
       </c>
@@ -6659,7 +8583,7 @@
         <v>94.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>2.306</v>
       </c>
@@ -6703,7 +8627,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>2.406</v>
       </c>
@@ -6747,7 +8671,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>2.507</v>
       </c>
@@ -6791,7 +8715,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>2.607</v>
       </c>
@@ -6835,7 +8759,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>2.707</v>
       </c>
@@ -6879,7 +8803,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>2.808</v>
       </c>
@@ -6923,7 +8847,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>2.908</v>
       </c>
@@ -6967,7 +8891,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>3.008</v>
       </c>
@@ -7011,7 +8935,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>3.109</v>
       </c>
@@ -7055,7 +8979,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>3.209</v>
       </c>
@@ -7099,7 +9023,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>3.309</v>
       </c>
@@ -7143,7 +9067,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>3.41</v>
       </c>
@@ -7187,7 +9111,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>3.51</v>
       </c>
@@ -7231,7 +9155,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>3.61</v>
       </c>
@@ -7275,7 +9199,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>3.711</v>
       </c>
@@ -7319,7 +9243,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>3.811</v>
       </c>
@@ -7363,7 +9287,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>3.911</v>
       </c>
@@ -7407,7 +9331,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>4.012</v>
       </c>
@@ -7451,7 +9375,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>4.112</v>
       </c>
@@ -7495,7 +9419,7 @@
         <v>95.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>4.212</v>
       </c>
@@ -7539,7 +9463,7 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>4.313</v>
       </c>
@@ -7583,7 +9507,7 @@
         <v>117.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>4.413</v>
       </c>
@@ -7627,7 +9551,7 @@
         <v>137.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>4.513</v>
       </c>
@@ -7671,7 +9595,7 @@
         <v>159.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>4.614</v>
       </c>
@@ -7715,7 +9639,7 @@
         <v>169.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>4.714</v>
       </c>
@@ -7759,7 +9683,7 @@
         <v>191.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>4.814</v>
       </c>
@@ -7803,7 +9727,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>4.915</v>
       </c>
@@ -7847,7 +9771,7 @@
         <v>207.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>5.015</v>
       </c>
@@ -7891,7 +9815,7 @@
         <v>210.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>5.115</v>
       </c>
@@ -7935,7 +9859,7 @@
         <v>211.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>5.216</v>
       </c>
@@ -7979,7 +9903,7 @@
         <v>208.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>5.316</v>
       </c>
@@ -8023,7 +9947,7 @@
         <v>204.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>5.416</v>
       </c>
@@ -8067,7 +9991,7 @@
         <v>202.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>5.517</v>
       </c>
@@ -8111,7 +10035,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>5.617</v>
       </c>
@@ -8155,7 +10079,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>5.717</v>
       </c>
@@ -8199,7 +10123,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>5.818</v>
       </c>
@@ -8243,7 +10167,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>5.918</v>
       </c>
@@ -8287,7 +10211,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>6.018</v>
       </c>
@@ -8331,7 +10255,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>6.118</v>
       </c>
@@ -8375,7 +10299,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>6.219</v>
       </c>
@@ -8419,7 +10343,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>6.319</v>
       </c>
@@ -8463,7 +10387,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>6.419</v>
       </c>
@@ -8507,7 +10431,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>6.52</v>
       </c>
@@ -8551,7 +10475,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>6.62</v>
       </c>
@@ -8595,7 +10519,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>6.72</v>
       </c>
@@ -8639,7 +10563,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>6.821</v>
       </c>
@@ -8683,7 +10607,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>6.921</v>
       </c>
@@ -8727,7 +10651,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>7.021</v>
       </c>
@@ -8771,7 +10695,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>7.122</v>
       </c>
@@ -8815,7 +10739,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>7.222</v>
       </c>
@@ -8859,7 +10783,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>7.322</v>
       </c>
@@ -8903,7 +10827,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>7.423</v>
       </c>
@@ -8947,7 +10871,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>7.523</v>
       </c>
@@ -8991,7 +10915,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>7.623</v>
       </c>
@@ -9035,7 +10959,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>7.724</v>
       </c>
@@ -9079,7 +11003,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>7.824</v>
       </c>
@@ -9123,7 +11047,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>7.924</v>
       </c>
@@ -9167,7 +11091,7 @@
         <v>201.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>8.025</v>
       </c>
@@ -9211,6 +11135,924 @@
         <v>201.0</v>
       </c>
     </row>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
